--- a/PROJECT/project 2.xlsx
+++ b/PROJECT/project 2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7150E-E191-486B-8BBF-897C3A15F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA65A3-AEF8-47EE-8057-E161CAA73EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35AA88EE-3987-46E5-BE1B-91E15656EFE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{35AA88EE-3987-46E5-BE1B-91E15656EFE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="TEST CASE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="421">
   <si>
     <t>function id</t>
   </si>
   <si>
-    <t>finction name</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -168,9 +166,6 @@
     <t>While clicking on that open back to women menu page details</t>
   </si>
   <si>
-    <t>While clicking on that icon see the proper product list and all are working as f.id 302 to 306</t>
-  </si>
-  <si>
     <t>Check casual dresses menu</t>
   </si>
   <si>
@@ -210,12 +205,6 @@
     <t>While clicking on that menu its open properly as fid 303 to304 and f.id 307</t>
   </si>
   <si>
-    <t>Check selector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">While clicking on selector there are working all option </t>
-  </si>
-  <si>
     <t>Check grid icon</t>
   </si>
   <si>
@@ -231,9 +220,6 @@
     <t>While clicking on that button image is close</t>
   </si>
   <si>
-    <t>While clicking on selector there are see the all size option properly and it is working</t>
-  </si>
-  <si>
     <t>check yellow color button</t>
   </si>
   <si>
@@ -279,9 +265,6 @@
     <t>Check add to cart button</t>
   </si>
   <si>
-    <t>While clicking on that button it it not working</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check more button </t>
   </si>
   <si>
@@ -348,14 +331,1347 @@
     <t>Check cart icon</t>
   </si>
   <si>
-    <t>Check login button</t>
+    <t>Check newsletter name link</t>
+  </si>
+  <si>
+    <t>Check newsletter block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check follow us name link </t>
+  </si>
+  <si>
+    <t>While clicking on that its not working</t>
+  </si>
+  <si>
+    <t>Check follow us facebook icon</t>
+  </si>
+  <si>
+    <t>While clicking on that its working and opne facebook website</t>
+  </si>
+  <si>
+    <t>Check follow us twitter icon</t>
+  </si>
+  <si>
+    <t>While clicking on that link its not working</t>
+  </si>
+  <si>
+    <t>Check follow us rss icon</t>
+  </si>
+  <si>
+    <t>Whlile cliking on that its icon working but redirect to another website page</t>
+  </si>
+  <si>
+    <t>While clicking on that its icon working but redirect to another website page</t>
+  </si>
+  <si>
+    <t>While clicking on that its working properly and see the proper page</t>
+  </si>
+  <si>
+    <t>While clicking on that that link is not working</t>
+  </si>
+  <si>
+    <t>While clicking on that link the error is found page does not exist</t>
+  </si>
+  <si>
+    <t>Check categories name link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check information name link </t>
+  </si>
+  <si>
+    <t>Check our srore name link</t>
+  </si>
+  <si>
+    <t>Check terms and condition use name link</t>
+  </si>
+  <si>
+    <t>Check about us name link</t>
+  </si>
+  <si>
+    <t>Check my account name link</t>
+  </si>
+  <si>
+    <t>While clicking on that link account page open properly</t>
+  </si>
+  <si>
+    <t>Whilie clicking on that its working properly</t>
+  </si>
+  <si>
+    <t>Check my orders name link</t>
+  </si>
+  <si>
+    <t>Check my credit sleep name link</t>
+  </si>
+  <si>
+    <t>Check my address name link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check my personal info</t>
+  </si>
+  <si>
+    <t>same as f.id 4001</t>
+  </si>
+  <si>
+    <t>Check women name link</t>
+  </si>
+  <si>
+    <t>Check store information name link</t>
+  </si>
+  <si>
+    <t>While clicking on that link its see the proper page on site and its showing all stores around the world</t>
+  </si>
+  <si>
+    <t>While choosing options all are choose in that</t>
+  </si>
+  <si>
+    <t>Check in contactus menu choosing bar</t>
+  </si>
+  <si>
+    <t>Check in contactus menu choose file</t>
+  </si>
+  <si>
+    <t>While choosing file on that its working and choose file</t>
+  </si>
+  <si>
+    <t>Check in contatcus menu send button</t>
+  </si>
+  <si>
+    <t>while clicking on that button send message successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check home button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">While clicking on that home button its working and back to main page </t>
+  </si>
+  <si>
+    <t>Check sale name link</t>
+  </si>
+  <si>
+    <t>While clicking on that name link is working and show the details of products</t>
+  </si>
+  <si>
+    <t>Check getsavingnow button</t>
+  </si>
+  <si>
+    <t>While clicking on that its refreshing site and not show any page details</t>
+  </si>
+  <si>
+    <t>Check homepage slider bar</t>
+  </si>
+  <si>
+    <t>Check in slider bar shop now button</t>
+  </si>
+  <si>
+    <t>While clicking on that its working but its redirect to another page</t>
+  </si>
+  <si>
+    <t>Check in slider bas preview button</t>
+  </si>
+  <si>
+    <t>Check in slider bas next button</t>
+  </si>
+  <si>
+    <t>While clicking on that its working and show next image product</t>
+  </si>
+  <si>
+    <t>While clicking on that its working and show prew image product</t>
+  </si>
+  <si>
+    <t>Check  3days home page Image</t>
+  </si>
+  <si>
+    <t>Check  online summer home page image</t>
+  </si>
+  <si>
+    <t>Check bestseller button</t>
+  </si>
+  <si>
+    <t>Check popular button</t>
+  </si>
+  <si>
+    <t>Check home page all images</t>
+  </si>
+  <si>
+    <t>While clicking on that images its redirect to another pge</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>TEST CASE  ID</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY ID</t>
+  </si>
+  <si>
+    <t>TEST CASE NAME</t>
+  </si>
+  <si>
+    <t>PRECONDITION</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>EXPECTED RESULT</t>
+  </si>
+  <si>
+    <t>ATCUAL RESULT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Browser, internet, and your website is working condition</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>to open the website in proper working condition</t>
+  </si>
+  <si>
+    <t>as per expected result</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key</t>
+  </si>
+  <si>
+    <t>Check header image</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on header image</t>
+  </si>
+  <si>
+    <t>page is redirect the sle page</t>
+  </si>
+  <si>
+    <t>its not redirect as per expected results</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>to open contact us page</t>
+  </si>
+  <si>
+    <t>all option enter one by one</t>
+  </si>
+  <si>
+    <t>to select all option one by one</t>
+  </si>
+  <si>
+    <t>enter and select file</t>
+  </si>
+  <si>
+    <t>to be uploaded selected file</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button
+4)select choosing bar
+5)select choosing file
+6)click send button</t>
+  </si>
+  <si>
+    <t>check send button without email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select subject heading: cusomer service
+email address:dimpleprajapati@gmail.com
+message: services is good
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select subject heading: cusomer service
+email address:
+message: services is good
+</t>
+  </si>
+  <si>
+    <t>to be display enter/invalid email address</t>
+  </si>
+  <si>
+    <t>check send button wrong email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select subject heading: cusomer service
+email address:dwcweece
+message: services is good
+</t>
+  </si>
+  <si>
+    <t>check send button without blank message box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select subject heading: cusomer service
+email address:dwcweece
+message: 
+</t>
+  </si>
+  <si>
+    <t>to be display the message cannot be blank</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button
+4)select choosing bar
+5)select choosing file
+6)click send button
+7)click home button</t>
+  </si>
+  <si>
+    <t>to redirect the home page</t>
+  </si>
+  <si>
+    <t>Check sign in link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to open sign in page</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button link</t>
+  </si>
+  <si>
+    <t>Check contactus button link</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button 
+4)select choosing bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button link
+4)click create an account button </t>
+  </si>
+  <si>
+    <t>email address: dimpleprajapati88@gmail.com</t>
+  </si>
+  <si>
+    <t>to accepted email address and go to registration page</t>
+  </si>
+  <si>
+    <t>Check create an account button with wrong email address</t>
+  </si>
+  <si>
+    <t>email address: hjgjhgcjhg</t>
+  </si>
+  <si>
+    <t>to display proper validation message about email address</t>
+  </si>
+  <si>
+    <t>to display proper validation message as per expected result</t>
+  </si>
+  <si>
+    <t>Check create an account button with registration email address</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button link
+4)click register button</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:dimpleprajapati@gmail.com
+password:12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> as per expected result</t>
+  </si>
+  <si>
+    <t>to proper register account and sign in page</t>
+  </si>
+  <si>
+    <t>Check sign in button</t>
+  </si>
+  <si>
+    <t>Check to registration button with under five character</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:dimpleprajapati@gmail.com
+password:123</t>
+  </si>
+  <si>
+    <t>to display proper validation message about password</t>
+  </si>
+  <si>
+    <t>Check to registration button with invalid email address</t>
+  </si>
+  <si>
+    <t>Check to registration button with blank</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:dimpleprajapati@gmail.com
+password:</t>
+  </si>
+  <si>
+    <t>Check to registration button with blank address</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:
+password:12345</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:dimple
+password:12345</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button link
+4)click register button
+5)click sign in button</t>
+  </si>
+  <si>
+    <t>email address:dimpleprajapati@gmail.com
+password:12345</t>
+  </si>
+  <si>
+    <t>to open proper home page with user details</t>
+  </si>
+  <si>
+    <t>Check sign in button with blank/null password and email address</t>
+  </si>
+  <si>
+    <t>email address:
+password:</t>
+  </si>
+  <si>
+    <t>to display proper validation message about email address and password</t>
+  </si>
+  <si>
+    <t>only display about email address validation message but not display about password validation message  so its not as per expected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check sign in button with email address and null password   </t>
+  </si>
+  <si>
+    <t>email address:dimpleprajapati88@gmail.com
+password:</t>
+  </si>
+  <si>
+    <t>to display password is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check sign in button with null email address and password   </t>
+  </si>
+  <si>
+    <t>email address:
+password:12345</t>
+  </si>
+  <si>
+    <t>to display email address is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check sign in button with invalid email address and password   </t>
+  </si>
+  <si>
+    <t>email address:dimple
+password:12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check sign in button with email address and invalid password   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to display invalid email address </t>
+  </si>
+  <si>
+    <t>to display invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check sign in button with wrong email address and wrong password   </t>
+  </si>
+  <si>
+    <t>email address:dimple
+password:123</t>
+  </si>
+  <si>
+    <t>to display invalid email address and password</t>
+  </si>
+  <si>
+    <t>only display message for email address not password so its not as per expected result</t>
+  </si>
+  <si>
+    <t>email address:dimpleprajapati88@gmail.com
+password:12345</t>
+  </si>
+  <si>
+    <t>enter and search any product</t>
+  </si>
+  <si>
+    <t>to display proper serach  product ditails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to properly open the cart page </t>
+  </si>
+  <si>
+    <t>to open the home page</t>
+  </si>
+  <si>
+    <t>to open the and click the women submenu properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click and enter all option one by one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">all option one by one display properly </t>
+  </si>
+  <si>
+    <t>to open the top menu properly</t>
+  </si>
+  <si>
+    <t>to open the tshirt menu properly</t>
+  </si>
+  <si>
+    <t>to open back to top menu properly</t>
+  </si>
+  <si>
+    <t>to the blouse menu properly</t>
+  </si>
+  <si>
+    <t>to open back to women menu properly</t>
+  </si>
+  <si>
+    <t>While clicking on that icon see the proper product list and all are working as f.id 702 to 706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">see the proper product list </t>
+  </si>
+  <si>
+    <t>to open the dresses menu properly</t>
+  </si>
+  <si>
+    <t>to open the details of casual dresses products details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to display the Evening dresses product details  </t>
+  </si>
+  <si>
+    <t>to open the back to women menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to display the summer dresses product details  </t>
+  </si>
+  <si>
+    <t>to open the back to dresses menu</t>
+  </si>
+  <si>
+    <t>same as f.id 708</t>
+  </si>
+  <si>
+    <t>to open the home properly</t>
+  </si>
+  <si>
+    <t>to open dresses menu properly</t>
+  </si>
+  <si>
+    <t>to open the proper page details one by one</t>
+  </si>
+  <si>
+    <t>Check sort by option</t>
+  </si>
+  <si>
+    <t>to be selected any otiopn that display with shorting manner</t>
+  </si>
+  <si>
+    <t>to open the Tshirt  page details one by one</t>
+  </si>
+  <si>
+    <t>to display products grid view properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to display products in listing view properly </t>
+  </si>
+  <si>
+    <t>to compare the product properly</t>
+  </si>
+  <si>
+    <t>not as per expected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While select on selector there are working all option </t>
+  </si>
+  <si>
+    <t>to display the tshirt details properly in zoom view</t>
+  </si>
+  <si>
+    <t>To close the product details in zoom view</t>
+  </si>
+  <si>
+    <t>Check size option</t>
+  </si>
+  <si>
+    <t>While select on selector there are see the all size option properly and it is working</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select on selector there are see the all size option properly</t>
+  </si>
+  <si>
+    <t>select and enter one by one option</t>
+  </si>
+  <si>
+    <t>select and enter short by one to one option</t>
+  </si>
+  <si>
+    <t>to open the yellow color tshirt details</t>
+  </si>
+  <si>
+    <t>to open the blue color tshirt details</t>
+  </si>
+  <si>
+    <t>Check quantity of minus button</t>
+  </si>
+  <si>
+    <t>the number of total quantiy the product is decreases</t>
+  </si>
+  <si>
+    <t>check  quantity of plus button</t>
+  </si>
+  <si>
+    <t>the number of total quantiy the product is increases</t>
+  </si>
+  <si>
+    <t>check all small image</t>
+  </si>
+  <si>
+    <t>to select images one by one to display perticular product images in main image page</t>
+  </si>
+  <si>
+    <t>to open the yellow color tshirt details page</t>
+  </si>
+  <si>
+    <t>to open the blue color tshirt details page</t>
+  </si>
+  <si>
+    <t>While clicking on that button it it not working because product is out of stoke</t>
+  </si>
+  <si>
+    <t>product is out of stoke so to add to cart button os not working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to show more details of product </t>
+  </si>
+  <si>
+    <t>to display the product comparison page properly</t>
+  </si>
+  <si>
+    <t>to display the compare product detals page</t>
+  </si>
+  <si>
+    <t>Check delete icon</t>
+  </si>
+  <si>
+    <t>to delete the properly from comparison page</t>
+  </si>
+  <si>
+    <t>to redirct the home page</t>
+  </si>
+  <si>
+    <t>to display the blog page properly</t>
+  </si>
+  <si>
+    <t>to properly user sign out in this site</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on home page slider</t>
+  </si>
+  <si>
+    <t>to display the proper discounted products details</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on home page slider
+4)click now button</t>
+  </si>
+  <si>
+    <t>to display preview product image properly</t>
+  </si>
+  <si>
+    <t>to display next product image properly</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on home page slider
+4)click preview button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on home page slider
+4)click next button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click 3days home page image</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click online summer page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click popular button </t>
+  </si>
+  <si>
+    <t>so the popular product page details and there are is not available then display the proper validation message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click bestseller  button </t>
+  </si>
+  <si>
+    <t>to display the best seller products details</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click all images one by one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to display the discounted page details one by one </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click newsletter block</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click facebook icon</t>
+  </si>
+  <si>
+    <t>email id: chiragprajapati88@gmail.com</t>
+  </si>
+  <si>
+    <t>to successfully subscribe as nesletter</t>
+  </si>
+  <si>
+    <t>Check newsletter block with register email id</t>
+  </si>
+  <si>
+    <t>email id: dimpleprajapati88@gmail.com</t>
+  </si>
+  <si>
+    <t>to display your email id is already register</t>
+  </si>
+  <si>
+    <t>Check newsletter block with register wrong email id</t>
+  </si>
+  <si>
+    <t>to display proper validation message</t>
+  </si>
+  <si>
+    <t>Check newsletter block with any special character except"_,."</t>
+  </si>
+  <si>
+    <t>email id: abcd#12345@gmail.com</t>
+  </si>
+  <si>
+    <t>to display proper validation message is invalid email id</t>
+  </si>
+  <si>
+    <t>to redirect the facebook page</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click twitter icon</t>
+  </si>
+  <si>
+    <t>to redirect the twitter page</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click rss icon</t>
+  </si>
+  <si>
+    <t>to redirect the women page details</t>
+  </si>
+  <si>
+    <t>not as per expected results</t>
+  </si>
+  <si>
+    <t>as per expected results</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click women name</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click information name</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click our store name</t>
+  </si>
+  <si>
+    <t>to display map to our store</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click terms and condition use name</t>
+  </si>
+  <si>
+    <t>to display terms and condition of use page details</t>
+  </si>
+  <si>
+    <t>to display about page details</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click ABOUT us</t>
+  </si>
+  <si>
+    <t>to open the my account page details</t>
+  </si>
+  <si>
+    <t>to open the order page details</t>
+  </si>
+  <si>
+    <t>to open the credit sleep page details</t>
+  </si>
+  <si>
+    <t>to open the my address page details</t>
+  </si>
+  <si>
+    <t>to open the personal info page details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click store information  </t>
+  </si>
+  <si>
+    <t>to display map about store</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3) click sign in
+3)click my account name</t>
+  </si>
+  <si>
+    <t>username :dimpleprajapati88@gmail.com
+password:12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sigh in
+4)click my account 
+5)click my orders </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sigh in
+4)click my account 
+5)click credit sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sigh in
+4)click my account 
+5)click my address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sigh in
+4)click my account 
+5)click personal ifo </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sigh in
+4)click sign out</t>
+  </si>
+  <si>
+    <t>to sign out the properly</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click categories</t>
+  </si>
+  <si>
+    <t>to not open the page of categories</t>
+  </si>
+  <si>
+    <t>chkeck follow us name link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click follow us </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to open the page of follow us </t>
+  </si>
+  <si>
+    <t>Check to registration button with special character except"_,."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> not as per expected result</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click logo button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on search block </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on search block 
+5) click home icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on cart icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on cart icon
+5)click home icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)check tshirt menu</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click blouse menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click WOMEN SUBMENU 
+6)click top menu
+7)click blouse menu
+8)click top menu</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click women menu
+7)click grower close icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click dresses menu</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click dresses menu
+7)click casual dresses menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click dresses menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click dresses menu
+7)click evening dresses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on WOMEN menu
+5)click top menu
+6)click dresses menu
+7)click summer dresses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+4)click sign in button
+5)click on WOMEN menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click on women menu
+5)click on home icon
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click desses menu
+</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click desses menu
+5)click on submenu option one by one</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 ) select sort by </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click grid icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click list icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click compare button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click close button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)select size </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click on yellow color button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click on blue color button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click quantity plus</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click quantity minus</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5 )click tshirt picture
+6)click all small images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click yellow color button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter ke
+3)click sign in button
+4)click tshirt menu
+5)click blue color button
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click on add to cart button
+</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click on more button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click add to compare</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click add to compare
+6)click compare button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click add to compare
+6)click compare button
+7)click view button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click add to compare
+6)click compare button
+7)click view button
+8)click delete icon</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click tshirt menu
+5)click add to compare
+6)click compare button
+7)click on continue shopping button</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click blog menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click sign in button
+4)click sign out </t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click nwesletter name link</t>
+  </si>
+  <si>
+    <t>to open the newslwtter page details</t>
+  </si>
+  <si>
+    <t>first name:Dimpal
+lastname:Prajapati
+email address:abcd#31234@gmail.com
+password:12345</t>
+  </si>
+  <si>
+    <t>Check in contatcus menu send button with email id special chracter except"_,."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select subject heading: cusomer service
+email address:dimplepra#japati@gmail.com
+message: services is good
+</t>
+  </si>
+  <si>
+    <t>to display invalid email id validation ,essage</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button
+4)select choosing file</t>
+  </si>
+  <si>
+    <t>1)http://www.automationpractice.pl/index.php
+2)press enter key
+3)click on contactus button
+4)click send button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,16 +1686,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -387,13 +1729,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,16 +2150,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A3CE51-812E-44B5-A4F7-AEBDA9B4D835}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="B78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="115" customWidth="1"/>
   </cols>
   <sheetData>
@@ -726,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,649 +2190,4228 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>204</v>
+        <v>302</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>303</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>304</v>
+        <v>600</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>305</v>
+        <v>601</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>306</v>
+        <v>700</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>307</v>
+        <v>701</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>308</v>
+        <v>702</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>309</v>
+        <v>703</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>310</v>
+        <v>704</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>311</v>
+        <v>705</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>312</v>
+        <v>706</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>313</v>
+        <v>707</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>314</v>
+        <v>708</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>316</v>
+        <v>709</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>317</v>
+        <v>710</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>318</v>
+        <v>711</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>319</v>
+        <v>712</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>400</v>
+        <v>713</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>401</v>
+        <v>714</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>500</v>
+        <v>715</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>501</v>
+        <v>716</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>502</v>
+        <v>717</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>503</v>
+        <v>718</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>504</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>800</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>505</v>
+        <v>801</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>506</v>
+        <v>900</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>507</v>
+        <v>901</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>508</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>67</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>902</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>509</v>
+        <v>903</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>510</v>
-      </c>
-      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>904</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C45" t="s">
-        <v>72</v>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>511</v>
+        <v>905</v>
       </c>
       <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
         <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>512</v>
+        <v>906</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>513</v>
+        <v>907</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>514</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>908</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>515</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>78</v>
+        <v>909</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>516</v>
+        <v>910</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>517</v>
+        <v>911</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>518</v>
+        <v>912</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>519</v>
+        <v>913</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>520</v>
-      </c>
-      <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>600</v>
-      </c>
-      <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>914</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>915</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>601</v>
+        <v>916</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>602</v>
-      </c>
-      <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>917</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>603</v>
+        <v>918</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>919</v>
+      </c>
+      <c r="B60" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>604</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>921</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>922</v>
+      </c>
+      <c r="B63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>923</v>
+      </c>
+      <c r="B64" t="s">
         <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>924</v>
+      </c>
+      <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1001</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>3001</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>4000</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>5000</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5001</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>6000</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6001</v>
+      </c>
+      <c r="B80" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>7000</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7001</v>
+      </c>
+      <c r="B84" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>7002</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>8000</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8001</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>8002</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>8003</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>8001</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>9000</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>9001</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>9002</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9003</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9004</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>9006</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>9007</v>
+      </c>
+      <c r="B97" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>9008</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>9009</v>
+      </c>
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>9010</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42014FD-90A1-4247-BAC7-990B80563141}">
+  <dimension ref="A1:I118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
+        <v>201</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>202</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
+        <v>203</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6">
+        <v>203</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
+        <v>203</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
+        <v>203</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
+        <v>203</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <v>204</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <v>300</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
+        <v>300</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
+        <v>301</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <v>301</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <v>301</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4">
+        <v>302</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
+        <v>302</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4">
+        <v>302</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4">
+        <v>302</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4">
+        <v>302</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9">
+        <v>302</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4">
+        <v>303</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9">
+        <v>303</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12">
+        <v>303</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12">
+        <v>303</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12">
+        <v>303</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="8" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12">
+        <v>303</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9">
+        <v>303</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4">
+        <v>400</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
+        <v>500</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4">
+        <v>501</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
+        <v>600</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4">
+        <v>601</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5">
+        <v>700</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4">
+        <v>701</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4">
+        <v>702</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4">
+        <v>703</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4">
+        <v>704</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4">
+        <v>705</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4">
+        <v>706</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4">
+        <v>707</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="5">
+        <v>708</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4">
+        <v>709</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="5">
+        <v>710</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4">
+        <v>711</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4">
+        <v>712</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="5">
+        <v>713</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4">
+        <v>712</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5">
+        <v>713</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5">
+        <v>716</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5">
+        <v>717</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5">
+        <v>718</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5">
+        <v>800</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5">
+        <v>801</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5">
+        <v>900</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5">
+        <v>901</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="5">
+        <v>902</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5">
+        <v>903</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+      <c r="B65" s="6">
+        <v>904</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5">
+        <v>905</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5">
+        <v>906</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5">
+        <v>907</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+      <c r="B69" s="6">
+        <v>908</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
+      <c r="B70" s="7">
+        <v>909</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="5">
+        <v>910</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5">
+        <v>911</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5">
+        <v>912</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5">
+        <v>913</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+      <c r="B75" s="6">
+        <v>908</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A76" s="12"/>
+      <c r="B76" s="7">
+        <v>909</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5">
+        <v>916</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5">
+        <v>917</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="5">
+        <v>918</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5">
+        <v>919</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="5">
+        <v>920</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5">
+        <v>921</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="5">
+        <v>922</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5">
+        <v>923</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="5">
+        <v>924</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+      <c r="B86" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
+      <c r="B87" s="7">
+        <v>1001</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H87" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+      <c r="B88" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="6">
+        <v>2001</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
+      <c r="B90" s="7">
+        <v>2002</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
+      <c r="B91" s="7">
+        <v>2003</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H91" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+      <c r="B92" s="6">
+        <v>2004</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+      <c r="B93" s="6">
+        <v>2005</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
+      <c r="B94" s="7">
+        <v>3000</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
+      <c r="B95" s="7">
+        <v>3001</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+      <c r="B96" s="6">
+        <v>4000</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+      <c r="B97" s="6">
+        <v>5000</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="7">
+        <v>5001</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="7">
+        <v>5001</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+      <c r="B100" s="6">
+        <v>5001</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="9"/>
+      <c r="B101" s="6">
+        <v>5001</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="6">
+        <v>6000</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5">
+        <v>6001</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="9"/>
+      <c r="B104" s="6">
+        <v>6002</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I104" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="6">
+        <v>6003</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="6">
+        <v>7000</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5">
+        <v>7001</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="6">
+        <v>8000</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+      <c r="B109" s="7">
+        <v>8001</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="6">
+        <v>8003</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="6">
+        <v>8001</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I111" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="13">
+        <v>9000</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5">
+        <v>9002</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="H113" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="13">
+        <v>9004</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="13">
+        <v>9007</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="13">
+        <v>9009</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="13">
+        <v>9010</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G117" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="6">
+        <v>10000</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G118" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>